--- a/TestData/Schuljahre/SCHULJAHR_2016/Schuldaten/Fachbelegung/Kurse_12.xlsx
+++ b/TestData/Schuljahre/SCHULJAHR_2016/Schuldaten/Fachbelegung/Kurse_12.xlsx
@@ -27,17 +27,17 @@
     </font>
     <font>
       <name val="Arial"/>
-      <color rgb="FF000000"/>
+      <color rgb="00000000"/>
       <sz val="12"/>
     </font>
     <font>
       <name val="Arial"/>
-      <color rgb="FF000000"/>
+      <color rgb="00000000"/>
       <sz val="11"/>
     </font>
     <font>
       <name val="Arial"/>
-      <color rgb="FF000000"/>
+      <color rgb="00000000"/>
       <sz val="10"/>
     </font>
   </fonts>
@@ -91,7 +91,7 @@
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
@@ -401,7 +401,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="E8" xSplit="4" ySplit="7"/>
@@ -432,13 +432,14 @@
     <col customWidth="1" max="18" min="18" width="7.5"/>
     <col customWidth="1" max="19" min="19" width="7.5"/>
     <col customWidth="1" max="20" min="20" width="7.5"/>
+    <col customWidth="1" max="21" min="21" width="7.5"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="28" r="1">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Kursbelegung (Fach+Schüler -&gt; Lehrer)</t>
+          <t>Fachbelegung (Fach+Schüler -&gt; Lehrer oder "nicht gewählt")</t>
         </is>
       </c>
     </row>
@@ -496,86 +497,94 @@
       <c r="D5" s="4" t="n"/>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>awt</t>
+          <t>AWT</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>bio</t>
+          <t>Bio</t>
         </is>
       </c>
       <c r="G5" s="3" t="inlineStr">
         <is>
-          <t>ch</t>
+          <t>Ch</t>
         </is>
       </c>
       <c r="H5" s="3" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>De</t>
         </is>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>En</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
         <is>
-          <t>eu</t>
+          <t>Eu</t>
         </is>
       </c>
       <c r="K5" s="3" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>Fr</t>
         </is>
       </c>
       <c r="L5" s="3" t="inlineStr">
         <is>
-          <t>fk</t>
+          <t>FK</t>
         </is>
       </c>
       <c r="M5" s="3" t="inlineStr">
         <is>
-          <t>geo</t>
+          <t>Geo</t>
         </is>
       </c>
       <c r="N5" s="3" t="inlineStr">
         <is>
-          <t>ges</t>
+          <t>Ges</t>
         </is>
       </c>
       <c r="O5" s="3" t="inlineStr">
         <is>
-          <t>kge</t>
+          <t>Kge</t>
         </is>
       </c>
       <c r="P5" s="3" t="inlineStr">
         <is>
-          <t>ma</t>
+          <t>Ma</t>
         </is>
       </c>
       <c r="Q5" s="3" t="inlineStr">
         <is>
-          <t>mu</t>
+          <t>Mu</t>
         </is>
       </c>
       <c r="R5" s="3" t="inlineStr">
         <is>
-          <t>soz</t>
+          <t>Rel</t>
         </is>
       </c>
       <c r="S5" s="3" t="inlineStr">
         <is>
-          <t>sp</t>
+          <t>Soz</t>
         </is>
       </c>
       <c r="T5" s="3" t="inlineStr">
         <is>
-          <t>sth</t>
+          <t>Sp</t>
+        </is>
+      </c>
+      <c r="U5" s="3" t="inlineStr">
+        <is>
+          <t>Sth</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="126" r="6">
+      <c r="A6" s="3" t="n"/>
+      <c r="B6" s="3" t="n"/>
+      <c r="C6" s="3" t="n"/>
       <c r="D6" s="4" t="n"/>
       <c r="E6" s="5" t="inlineStr">
         <is>
@@ -644,15 +653,20 @@
       </c>
       <c r="R6" s="5" t="inlineStr">
         <is>
+          <t>Religion</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
           <t>Sozialkunde</t>
         </is>
       </c>
-      <c r="S6" s="5" t="inlineStr">
+      <c r="T6" s="5" t="inlineStr">
         <is>
           <t>Sport</t>
         </is>
       </c>
-      <c r="T6" s="5" t="inlineStr">
+      <c r="U6" s="5" t="inlineStr">
         <is>
           <t>Steinhauen</t>
         </is>
@@ -679,6 +693,7 @@
       <c r="R7" s="4" t="n"/>
       <c r="S7" s="4" t="n"/>
       <c r="T7" s="4" t="n"/>
+      <c r="U7" s="4" t="n"/>
     </row>
     <row customHeight="1" ht="22.4" r="8">
       <c r="A8" s="3" t="inlineStr">
@@ -697,82 +712,35 @@
         </is>
       </c>
       <c r="D8" s="4" t="n"/>
-      <c r="E8" s="7" t="inlineStr">
-        <is>
-          <t>ML</t>
-        </is>
-      </c>
-      <c r="F8" s="7" t="inlineStr">
-        <is>
-          <t>RL</t>
-        </is>
-      </c>
-      <c r="G8" s="7" t="inlineStr">
-        <is>
-          <t>KK</t>
-        </is>
-      </c>
-      <c r="H8" s="7" t="inlineStr">
-        <is>
-          <t>BW</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="n"/>
+      <c r="F8" s="7" t="n"/>
+      <c r="G8" s="7" t="n"/>
+      <c r="H8" s="7" t="n"/>
       <c r="I8" s="7" t="inlineStr">
         <is>
           <t>MF</t>
         </is>
       </c>
-      <c r="J8" s="7" t="inlineStr">
-        <is>
-          <t>LM</t>
-        </is>
-      </c>
-      <c r="K8" s="7" t="n"/>
-      <c r="L8" s="7" t="inlineStr">
-        <is>
-          <t>FK</t>
-        </is>
-      </c>
-      <c r="M8" s="7" t="inlineStr">
-        <is>
-          <t>RL</t>
-        </is>
-      </c>
-      <c r="N8" s="7" t="inlineStr">
-        <is>
-          <t>KW</t>
-        </is>
-      </c>
-      <c r="O8" s="7" t="inlineStr">
-        <is>
-          <t>BW</t>
-        </is>
-      </c>
+      <c r="J8" s="7" t="n"/>
+      <c r="K8" s="7" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="L8" s="7" t="n"/>
+      <c r="M8" s="7" t="n"/>
+      <c r="N8" s="7" t="n"/>
+      <c r="O8" s="7" t="n"/>
       <c r="P8" s="7" t="inlineStr">
         <is>
           <t>MT</t>
         </is>
       </c>
-      <c r="Q8" s="7" t="inlineStr">
-        <is>
-          <t>BS</t>
-        </is>
-      </c>
-      <c r="R8" s="7" t="inlineStr">
-        <is>
-          <t>TU</t>
-        </is>
-      </c>
-      <c r="S8" s="7" t="inlineStr">
-        <is>
-          <t>MS,ES</t>
-        </is>
-      </c>
-      <c r="T8" s="7" t="inlineStr">
-        <is>
-          <t>MR</t>
-        </is>
-      </c>
+      <c r="Q8" s="7" t="n"/>
+      <c r="R8" s="7" t="n"/>
+      <c r="S8" s="7" t="n"/>
+      <c r="T8" s="7" t="n"/>
+      <c r="U8" s="7" t="n"/>
     </row>
     <row customHeight="1" ht="22.4" r="9">
       <c r="A9" s="3" t="inlineStr">
@@ -791,78 +759,39 @@
         </is>
       </c>
       <c r="D9" s="4" t="n"/>
-      <c r="E9" s="7" t="n"/>
-      <c r="F9" s="7" t="inlineStr">
-        <is>
-          <t>RL</t>
-        </is>
-      </c>
-      <c r="G9" s="7" t="n"/>
-      <c r="H9" s="7" t="inlineStr">
-        <is>
-          <t>BW</t>
-        </is>
-      </c>
+      <c r="E9" s="7" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="F9" s="7" t="n"/>
+      <c r="G9" s="7" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="n"/>
       <c r="I9" s="7" t="inlineStr">
         <is>
           <t>BD</t>
         </is>
       </c>
-      <c r="J9" s="7" t="inlineStr">
-        <is>
-          <t>LM</t>
-        </is>
-      </c>
-      <c r="K9" s="7" t="inlineStr">
-        <is>
-          <t>ESM</t>
-        </is>
-      </c>
-      <c r="L9" s="7" t="inlineStr">
-        <is>
-          <t>FK</t>
-        </is>
-      </c>
-      <c r="M9" s="7" t="inlineStr">
-        <is>
-          <t>RL</t>
-        </is>
-      </c>
-      <c r="N9" s="7" t="inlineStr">
-        <is>
-          <t>KW</t>
-        </is>
-      </c>
-      <c r="O9" s="7" t="inlineStr">
-        <is>
-          <t>BW</t>
-        </is>
-      </c>
+      <c r="J9" s="7" t="n"/>
+      <c r="K9" s="7" t="n"/>
+      <c r="L9" s="7" t="n"/>
+      <c r="M9" s="7" t="n"/>
+      <c r="N9" s="7" t="n"/>
+      <c r="O9" s="7" t="n"/>
       <c r="P9" s="7" t="inlineStr">
         <is>
           <t>AK</t>
         </is>
       </c>
-      <c r="Q9" s="7" t="inlineStr">
-        <is>
-          <t>BS</t>
-        </is>
-      </c>
-      <c r="R9" s="7" t="inlineStr">
-        <is>
-          <t>TU</t>
-        </is>
-      </c>
-      <c r="S9" s="7" t="inlineStr">
-        <is>
-          <t>MS,ES</t>
-        </is>
-      </c>
-      <c r="T9" s="7" t="inlineStr">
-        <is>
-          <t>MR</t>
-        </is>
-      </c>
+      <c r="Q9" s="7" t="n"/>
+      <c r="R9" s="7" t="n"/>
+      <c r="S9" s="7" t="n"/>
+      <c r="T9" s="7" t="n"/>
+      <c r="U9" s="7" t="n"/>
     </row>
     <row customHeight="1" ht="22.4" r="10">
       <c r="A10" s="3" t="inlineStr">
@@ -881,82 +810,35 @@
         </is>
       </c>
       <c r="D10" s="4" t="n"/>
-      <c r="E10" s="7" t="n"/>
-      <c r="F10" s="7" t="inlineStr">
-        <is>
-          <t>RL</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr">
-        <is>
-          <t>KK</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr">
-        <is>
-          <t>BW</t>
-        </is>
-      </c>
+      <c r="E10" s="7" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="F10" s="7" t="n"/>
+      <c r="G10" s="7" t="n"/>
+      <c r="H10" s="7" t="n"/>
       <c r="I10" s="7" t="inlineStr">
         <is>
           <t>BD</t>
         </is>
       </c>
-      <c r="J10" s="7" t="inlineStr">
-        <is>
-          <t>LM</t>
-        </is>
-      </c>
-      <c r="K10" s="7" t="inlineStr">
-        <is>
-          <t>ESM</t>
-        </is>
-      </c>
-      <c r="L10" s="7" t="inlineStr">
-        <is>
-          <t>FK</t>
-        </is>
-      </c>
-      <c r="M10" s="7" t="inlineStr">
-        <is>
-          <t>RL</t>
-        </is>
-      </c>
-      <c r="N10" s="7" t="inlineStr">
-        <is>
-          <t>KW</t>
-        </is>
-      </c>
-      <c r="O10" s="7" t="inlineStr">
-        <is>
-          <t>BW</t>
-        </is>
-      </c>
+      <c r="J10" s="7" t="n"/>
+      <c r="K10" s="7" t="n"/>
+      <c r="L10" s="7" t="n"/>
+      <c r="M10" s="7" t="n"/>
+      <c r="N10" s="7" t="n"/>
+      <c r="O10" s="7" t="n"/>
       <c r="P10" s="7" t="inlineStr">
         <is>
           <t>AK</t>
         </is>
       </c>
-      <c r="Q10" s="7" t="inlineStr">
-        <is>
-          <t>BS</t>
-        </is>
-      </c>
-      <c r="R10" s="7" t="inlineStr">
-        <is>
-          <t>TU</t>
-        </is>
-      </c>
-      <c r="S10" s="7" t="inlineStr">
-        <is>
-          <t>MS,ES</t>
-        </is>
-      </c>
-      <c r="T10" s="7" t="inlineStr">
-        <is>
-          <t>MR</t>
-        </is>
-      </c>
+      <c r="Q10" s="7" t="n"/>
+      <c r="R10" s="7" t="n"/>
+      <c r="S10" s="7" t="n"/>
+      <c r="T10" s="7" t="n"/>
+      <c r="U10" s="7" t="n"/>
     </row>
     <row customHeight="1" ht="22.4" r="11">
       <c r="A11" s="3" t="inlineStr">
@@ -975,82 +857,35 @@
         </is>
       </c>
       <c r="D11" s="4" t="n"/>
-      <c r="E11" s="7" t="inlineStr">
-        <is>
-          <t>ML</t>
-        </is>
-      </c>
-      <c r="F11" s="7" t="inlineStr">
-        <is>
-          <t>RL</t>
-        </is>
-      </c>
-      <c r="G11" s="7" t="inlineStr">
-        <is>
-          <t>KK</t>
-        </is>
-      </c>
-      <c r="H11" s="7" t="inlineStr">
-        <is>
-          <t>BW</t>
-        </is>
-      </c>
+      <c r="E11" s="7" t="n"/>
+      <c r="F11" s="7" t="n"/>
+      <c r="G11" s="7" t="n"/>
+      <c r="H11" s="7" t="n"/>
       <c r="I11" s="7" t="inlineStr">
         <is>
           <t>MF</t>
         </is>
       </c>
-      <c r="J11" s="7" t="inlineStr">
-        <is>
-          <t>LM</t>
-        </is>
-      </c>
-      <c r="K11" s="7" t="n"/>
-      <c r="L11" s="7" t="inlineStr">
-        <is>
-          <t>FK</t>
-        </is>
-      </c>
-      <c r="M11" s="7" t="inlineStr">
-        <is>
-          <t>RL</t>
-        </is>
-      </c>
-      <c r="N11" s="7" t="inlineStr">
-        <is>
-          <t>KW</t>
-        </is>
-      </c>
-      <c r="O11" s="7" t="inlineStr">
-        <is>
-          <t>BW</t>
-        </is>
-      </c>
+      <c r="J11" s="7" t="n"/>
+      <c r="K11" s="7" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="L11" s="7" t="n"/>
+      <c r="M11" s="7" t="n"/>
+      <c r="N11" s="7" t="n"/>
+      <c r="O11" s="7" t="n"/>
       <c r="P11" s="7" t="inlineStr">
         <is>
           <t>MT</t>
         </is>
       </c>
-      <c r="Q11" s="7" t="inlineStr">
-        <is>
-          <t>BS</t>
-        </is>
-      </c>
-      <c r="R11" s="7" t="inlineStr">
-        <is>
-          <t>TU</t>
-        </is>
-      </c>
-      <c r="S11" s="7" t="inlineStr">
-        <is>
-          <t>MS,ES</t>
-        </is>
-      </c>
-      <c r="T11" s="7" t="inlineStr">
-        <is>
-          <t>MR</t>
-        </is>
-      </c>
+      <c r="Q11" s="7" t="n"/>
+      <c r="R11" s="7" t="n"/>
+      <c r="S11" s="7" t="n"/>
+      <c r="T11" s="7" t="n"/>
+      <c r="U11" s="7" t="n"/>
     </row>
     <row customHeight="1" ht="22.4" r="12">
       <c r="A12" s="3" t="inlineStr">
@@ -1069,82 +904,35 @@
         </is>
       </c>
       <c r="D12" s="4" t="n"/>
-      <c r="E12" s="7" t="n"/>
-      <c r="F12" s="7" t="inlineStr">
-        <is>
-          <t>RL</t>
-        </is>
-      </c>
-      <c r="G12" s="7" t="inlineStr">
-        <is>
-          <t>KK</t>
-        </is>
-      </c>
-      <c r="H12" s="7" t="inlineStr">
-        <is>
-          <t>BW</t>
-        </is>
-      </c>
+      <c r="E12" s="7" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="F12" s="7" t="n"/>
+      <c r="G12" s="7" t="n"/>
+      <c r="H12" s="7" t="n"/>
       <c r="I12" s="7" t="inlineStr">
         <is>
           <t>BD</t>
         </is>
       </c>
-      <c r="J12" s="7" t="inlineStr">
-        <is>
-          <t>LM</t>
-        </is>
-      </c>
-      <c r="K12" s="7" t="inlineStr">
-        <is>
-          <t>ESM</t>
-        </is>
-      </c>
-      <c r="L12" s="7" t="inlineStr">
-        <is>
-          <t>FK</t>
-        </is>
-      </c>
-      <c r="M12" s="7" t="inlineStr">
-        <is>
-          <t>RL</t>
-        </is>
-      </c>
-      <c r="N12" s="7" t="inlineStr">
-        <is>
-          <t>KW</t>
-        </is>
-      </c>
-      <c r="O12" s="7" t="inlineStr">
-        <is>
-          <t>BW</t>
-        </is>
-      </c>
+      <c r="J12" s="7" t="n"/>
+      <c r="K12" s="7" t="n"/>
+      <c r="L12" s="7" t="n"/>
+      <c r="M12" s="7" t="n"/>
+      <c r="N12" s="7" t="n"/>
+      <c r="O12" s="7" t="n"/>
       <c r="P12" s="7" t="inlineStr">
         <is>
           <t>AK</t>
         </is>
       </c>
-      <c r="Q12" s="7" t="inlineStr">
-        <is>
-          <t>BS</t>
-        </is>
-      </c>
-      <c r="R12" s="7" t="inlineStr">
-        <is>
-          <t>TU</t>
-        </is>
-      </c>
-      <c r="S12" s="7" t="inlineStr">
-        <is>
-          <t>MS,ES</t>
-        </is>
-      </c>
-      <c r="T12" s="7" t="inlineStr">
-        <is>
-          <t>MR</t>
-        </is>
-      </c>
+      <c r="Q12" s="7" t="n"/>
+      <c r="R12" s="7" t="n"/>
+      <c r="S12" s="7" t="n"/>
+      <c r="T12" s="7" t="n"/>
+      <c r="U12" s="7" t="n"/>
     </row>
     <row customHeight="1" ht="22.4" r="13">
       <c r="A13" s="3" t="inlineStr">
@@ -1163,82 +951,35 @@
         </is>
       </c>
       <c r="D13" s="4" t="n"/>
-      <c r="E13" s="7" t="inlineStr">
-        <is>
-          <t>ML</t>
-        </is>
-      </c>
-      <c r="F13" s="7" t="inlineStr">
-        <is>
-          <t>RL</t>
-        </is>
-      </c>
-      <c r="G13" s="7" t="inlineStr">
-        <is>
-          <t>KK</t>
-        </is>
-      </c>
-      <c r="H13" s="7" t="inlineStr">
-        <is>
-          <t>BW</t>
-        </is>
-      </c>
+      <c r="E13" s="7" t="n"/>
+      <c r="F13" s="7" t="n"/>
+      <c r="G13" s="7" t="n"/>
+      <c r="H13" s="7" t="n"/>
       <c r="I13" s="7" t="inlineStr">
         <is>
           <t>MF</t>
         </is>
       </c>
-      <c r="J13" s="7" t="inlineStr">
-        <is>
-          <t>LM</t>
-        </is>
-      </c>
-      <c r="K13" s="7" t="n"/>
-      <c r="L13" s="7" t="inlineStr">
-        <is>
-          <t>FK</t>
-        </is>
-      </c>
-      <c r="M13" s="7" t="inlineStr">
-        <is>
-          <t>RL</t>
-        </is>
-      </c>
-      <c r="N13" s="7" t="inlineStr">
-        <is>
-          <t>KW</t>
-        </is>
-      </c>
-      <c r="O13" s="7" t="inlineStr">
-        <is>
-          <t>BW</t>
-        </is>
-      </c>
+      <c r="J13" s="7" t="n"/>
+      <c r="K13" s="7" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="L13" s="7" t="n"/>
+      <c r="M13" s="7" t="n"/>
+      <c r="N13" s="7" t="n"/>
+      <c r="O13" s="7" t="n"/>
       <c r="P13" s="7" t="inlineStr">
         <is>
           <t>MT</t>
         </is>
       </c>
-      <c r="Q13" s="7" t="inlineStr">
-        <is>
-          <t>BS</t>
-        </is>
-      </c>
-      <c r="R13" s="7" t="inlineStr">
-        <is>
-          <t>TU</t>
-        </is>
-      </c>
-      <c r="S13" s="7" t="inlineStr">
-        <is>
-          <t>MS,ES</t>
-        </is>
-      </c>
-      <c r="T13" s="7" t="inlineStr">
-        <is>
-          <t>MR</t>
-        </is>
-      </c>
+      <c r="Q13" s="7" t="n"/>
+      <c r="R13" s="7" t="n"/>
+      <c r="S13" s="7" t="n"/>
+      <c r="T13" s="7" t="n"/>
+      <c r="U13" s="7" t="n"/>
     </row>
     <row customHeight="1" ht="22.4" r="14">
       <c r="A14" s="3" t="inlineStr">
@@ -1257,78 +998,39 @@
         </is>
       </c>
       <c r="D14" s="4" t="n"/>
-      <c r="E14" s="7" t="n"/>
-      <c r="F14" s="7" t="inlineStr">
-        <is>
-          <t>RL</t>
-        </is>
-      </c>
-      <c r="G14" s="7" t="inlineStr">
-        <is>
-          <t>KK</t>
-        </is>
-      </c>
-      <c r="H14" s="7" t="inlineStr">
-        <is>
-          <t>BW</t>
-        </is>
-      </c>
+      <c r="E14" s="7" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="F14" s="7" t="n"/>
+      <c r="G14" s="7" t="n"/>
+      <c r="H14" s="7" t="n"/>
       <c r="I14" s="7" t="inlineStr">
         <is>
           <t>BD</t>
         </is>
       </c>
-      <c r="J14" s="7" t="inlineStr">
-        <is>
-          <t>LM</t>
-        </is>
-      </c>
-      <c r="K14" s="7" t="inlineStr">
-        <is>
-          <t>ESM</t>
-        </is>
-      </c>
-      <c r="L14" s="7" t="n"/>
-      <c r="M14" s="7" t="inlineStr">
-        <is>
-          <t>RL</t>
-        </is>
-      </c>
-      <c r="N14" s="7" t="inlineStr">
-        <is>
-          <t>KW</t>
-        </is>
-      </c>
-      <c r="O14" s="7" t="inlineStr">
-        <is>
-          <t>BW</t>
-        </is>
-      </c>
+      <c r="J14" s="7" t="n"/>
+      <c r="K14" s="7" t="n"/>
+      <c r="L14" s="7" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="M14" s="7" t="n"/>
+      <c r="N14" s="7" t="n"/>
+      <c r="O14" s="7" t="n"/>
       <c r="P14" s="7" t="inlineStr">
         <is>
           <t>AK</t>
         </is>
       </c>
-      <c r="Q14" s="7" t="inlineStr">
-        <is>
-          <t>BS</t>
-        </is>
-      </c>
-      <c r="R14" s="7" t="inlineStr">
-        <is>
-          <t>TU</t>
-        </is>
-      </c>
-      <c r="S14" s="7" t="inlineStr">
-        <is>
-          <t>MS,ES</t>
-        </is>
-      </c>
-      <c r="T14" s="7" t="inlineStr">
-        <is>
-          <t>MR</t>
-        </is>
-      </c>
+      <c r="Q14" s="7" t="n"/>
+      <c r="R14" s="7" t="n"/>
+      <c r="S14" s="7" t="n"/>
+      <c r="T14" s="7" t="n"/>
+      <c r="U14" s="7" t="n"/>
     </row>
     <row customHeight="1" ht="22.4" r="15">
       <c r="A15" s="3" t="inlineStr">
@@ -1347,85 +1049,46 @@
         </is>
       </c>
       <c r="D15" s="4" t="n"/>
-      <c r="E15" s="7" t="n"/>
-      <c r="F15" s="7" t="inlineStr">
-        <is>
-          <t>RL</t>
-        </is>
-      </c>
-      <c r="G15" s="7" t="inlineStr">
-        <is>
-          <t>KK</t>
-        </is>
-      </c>
-      <c r="H15" s="7" t="inlineStr">
-        <is>
-          <t>BW</t>
-        </is>
-      </c>
+      <c r="E15" s="7" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="F15" s="7" t="n"/>
+      <c r="G15" s="7" t="n"/>
+      <c r="H15" s="7" t="n"/>
       <c r="I15" s="7" t="inlineStr">
         <is>
           <t>BD</t>
         </is>
       </c>
-      <c r="J15" s="7" t="inlineStr">
-        <is>
-          <t>LM</t>
-        </is>
-      </c>
-      <c r="K15" s="7" t="inlineStr">
-        <is>
-          <t>ESM</t>
-        </is>
-      </c>
-      <c r="L15" s="7" t="n"/>
-      <c r="M15" s="7" t="inlineStr">
-        <is>
-          <t>RL</t>
-        </is>
-      </c>
-      <c r="N15" s="7" t="inlineStr">
-        <is>
-          <t>KW</t>
-        </is>
-      </c>
-      <c r="O15" s="7" t="inlineStr">
-        <is>
-          <t>BW</t>
-        </is>
-      </c>
+      <c r="J15" s="7" t="n"/>
+      <c r="K15" s="7" t="n"/>
+      <c r="L15" s="7" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="M15" s="7" t="n"/>
+      <c r="N15" s="7" t="n"/>
+      <c r="O15" s="7" t="n"/>
       <c r="P15" s="7" t="inlineStr">
         <is>
           <t>AK</t>
         </is>
       </c>
-      <c r="Q15" s="7" t="inlineStr">
-        <is>
-          <t>BS</t>
-        </is>
-      </c>
-      <c r="R15" s="7" t="inlineStr">
-        <is>
-          <t>TU</t>
-        </is>
-      </c>
-      <c r="S15" s="7" t="inlineStr">
-        <is>
-          <t>MS,ES</t>
-        </is>
-      </c>
-      <c r="T15" s="7" t="inlineStr">
-        <is>
-          <t>MR</t>
-        </is>
-      </c>
+      <c r="Q15" s="7" t="n"/>
+      <c r="R15" s="7" t="n"/>
+      <c r="S15" s="7" t="n"/>
+      <c r="T15" s="7" t="n"/>
+      <c r="U15" s="7" t="n"/>
     </row>
   </sheetData>
   <sheetProtection autoFilter="1" deleteColumns="1" deleteRows="1" formatCells="1" formatColumns="1" formatRows="1" insertColumns="1" insertHyperlinks="1" insertRows="1" objects="0" pivotTables="1" scenarios="0" selectLockedCells="0" selectUnlockedCells="0" sheet="1" sort="1"/>
   <mergeCells count="3">
-    <mergeCell ref="B1:T1"/>
-    <mergeCell ref="C2:S2"/>
-    <mergeCell ref="C3:S3"/>
+    <mergeCell ref="B1:U1"/>
+    <mergeCell ref="C2:T2"/>
+    <mergeCell ref="C3:T3"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <pageSetup fitToHeight="0" paperSize="9"/>
